--- a/PRESENTISMO 22807.xlsx
+++ b/PRESENTISMO 22807.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="234">
   <si>
     <t>Nro de comisión</t>
   </si>
@@ -1094,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB990"/>
+  <dimension ref="A1:AC990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1111,7 @@
     <col min="28" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>233</v>
       </c>
@@ -1196,10 +1196,13 @@
       <c r="AB1" s="3">
         <v>44880</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC1" s="3">
+        <v>44882</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
-        <f>(COUNTIF(F2:AB2,"P")/(COUNTA(F2:AB2)))</f>
+        <f>(COUNTIF(F2:AC2,"P")/(COUNTA(F2:AC2)))</f>
         <v>1</v>
       </c>
       <c r="B2" s="7">
@@ -1283,10 +1286,13 @@
       <c r="AB2" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC2" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
-        <f>(COUNTIF(F3:AB3,"P")/(COUNTA(F3:AB3)))</f>
+        <f t="shared" ref="A3:A66" si="0">(COUNTIF(F3:AC3,"P")/(COUNTA(F3:AC3)))</f>
         <v>1</v>
       </c>
       <c r="B3" s="7">
@@ -1370,10 +1376,13 @@
       <c r="AB3" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC3" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
-        <f>(COUNTIF(F4:AB4,"P")/(COUNTA(F4:AB4)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B4" s="7">
@@ -1457,10 +1466,13 @@
       <c r="AB4" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC4" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <f>(COUNTIF(F5:AB5,"P")/(COUNTA(F5:AB5)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B5" s="7">
@@ -1544,10 +1556,13 @@
       <c r="AB5" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC5" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <f>(COUNTIF(F6:AB6,"P")/(COUNTA(F6:AB6)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B6" s="7">
@@ -1631,10 +1646,13 @@
       <c r="AB6" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC6" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <f>(COUNTIF(F7:AB7,"P")/(COUNTA(F7:AB7)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B7" s="7">
@@ -1718,10 +1736,13 @@
       <c r="AB7" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC7" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <f>(COUNTIF(F8:AB8,"P")/(COUNTA(F8:AB8)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B8" s="7">
@@ -1805,10 +1826,13 @@
       <c r="AB8" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC8" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <f>(COUNTIF(F9:AB9,"P")/(COUNTA(F9:AB9)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B9" s="7">
@@ -1892,10 +1916,13 @@
       <c r="AB9" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC9" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <f>(COUNTIF(F10:AB10,"P")/(COUNTA(F10:AB10)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B10" s="7">
@@ -1979,10 +2006,13 @@
       <c r="AB10" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC10" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <f>(COUNTIF(F11:AB11,"P")/(COUNTA(F11:AB11)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B11" s="7">
@@ -2066,10 +2096,13 @@
       <c r="AB11" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC11" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
-        <f>(COUNTIF(F12:AB12,"P")/(COUNTA(F12:AB12)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B12" s="7">
@@ -2153,10 +2186,13 @@
       <c r="AB12" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC12" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <f>(COUNTIF(F13:AB13,"P")/(COUNTA(F13:AB13)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B13" s="7">
@@ -2240,10 +2276,13 @@
       <c r="AB13" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC13" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
-        <f>(COUNTIF(F14:AB14,"P")/(COUNTA(F14:AB14)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B14" s="7">
@@ -2327,10 +2366,13 @@
       <c r="AB14" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC14" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
-        <f>(COUNTIF(F15:AB15,"P")/(COUNTA(F15:AB15)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B15" s="7">
@@ -2414,10 +2456,13 @@
       <c r="AB15" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC15" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
-        <f>(COUNTIF(F16:AB16,"P")/(COUNTA(F16:AB16)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B16" s="7">
@@ -2501,10 +2546,13 @@
       <c r="AB16" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC16" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <f>(COUNTIF(F17:AB17,"P")/(COUNTA(F17:AB17)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B17" s="7">
@@ -2588,10 +2636,13 @@
       <c r="AB17" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC17" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <f>(COUNTIF(F18:AB18,"P")/(COUNTA(F18:AB18)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B18" s="7">
@@ -2675,10 +2726,13 @@
       <c r="AB18" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC18" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <f>(COUNTIF(F19:AB19,"P")/(COUNTA(F19:AB19)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B19" s="7">
@@ -2762,10 +2816,13 @@
       <c r="AB19" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC19" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <f>(COUNTIF(F20:AB20,"P")/(COUNTA(F20:AB20)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B20" s="7">
@@ -2849,10 +2906,13 @@
       <c r="AB20" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC20" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <f>(COUNTIF(F21:AB21,"P")/(COUNTA(F21:AB21)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B21" s="7">
@@ -2936,11 +2996,14 @@
       <c r="AB21" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC21" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <f>(COUNTIF(F22:AB22,"P")/(COUNTA(F22:AB22)))</f>
-        <v>0.95652173913043481</v>
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B22" s="7">
         <v>22807</v>
@@ -3023,11 +3086,14 @@
       <c r="AB22" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC22" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <f>(COUNTIF(F23:AB23,"P")/(COUNTA(F23:AB23)))</f>
-        <v>0.95652173913043481</v>
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B23" s="7">
         <v>22807</v>
@@ -3110,11 +3176,14 @@
       <c r="AB23" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC23" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <f>(COUNTIF(F24:AB24,"P")/(COUNTA(F24:AB24)))</f>
-        <v>0.95652173913043481</v>
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B24" s="7">
         <v>22807</v>
@@ -3197,11 +3266,14 @@
       <c r="AB24" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC24" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <f>(COUNTIF(F25:AB25,"P")/(COUNTA(F25:AB25)))</f>
-        <v>0.95652173913043481</v>
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B25" s="7">
         <v>22807</v>
@@ -3284,11 +3356,14 @@
       <c r="AB25" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC25" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <f>(COUNTIF(F26:AB26,"P")/(COUNTA(F26:AB26)))</f>
-        <v>0.95652173913043481</v>
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B26" s="7">
         <v>22807</v>
@@ -3371,11 +3446,14 @@
       <c r="AB26" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC26" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
-        <f>(COUNTIF(F27:AB27,"P")/(COUNTA(F27:AB27)))</f>
-        <v>0.95652173913043481</v>
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B27" s="7">
         <v>22807</v>
@@ -3458,11 +3536,14 @@
       <c r="AB27" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC27" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
-        <f>(COUNTIF(F28:AB28,"P")/(COUNTA(F28:AB28)))</f>
-        <v>0.95652173913043481</v>
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B28" s="7">
         <v>22807</v>
@@ -3545,11 +3626,14 @@
       <c r="AB28" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC28" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
-        <f>(COUNTIF(F29:AB29,"P")/(COUNTA(F29:AB29)))</f>
-        <v>0.95652173913043481</v>
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B29" s="7">
         <v>22807</v>
@@ -3632,11 +3716,14 @@
       <c r="AB29" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC29" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <f>(COUNTIF(F30:AB30,"P")/(COUNTA(F30:AB30)))</f>
-        <v>0.95652173913043481</v>
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B30" s="7">
         <v>22807</v>
@@ -3719,11 +3806,14 @@
       <c r="AB30" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC30" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
-        <f>(COUNTIF(F31:AB31,"P")/(COUNTA(F31:AB31)))</f>
-        <v>0.95652173913043481</v>
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B31" s="7">
         <v>22807</v>
@@ -3806,11 +3896,14 @@
       <c r="AB31" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC31" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
-        <f>(COUNTIF(F32:AB32,"P")/(COUNTA(F32:AB32)))</f>
-        <v>0.95652173913043481</v>
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B32" s="7">
         <v>22807</v>
@@ -3893,11 +3986,14 @@
       <c r="AB32" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC32" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
-        <f>(COUNTIF(F33:AB33,"P")/(COUNTA(F33:AB33)))</f>
-        <v>0.95652173913043481</v>
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B33" s="7">
         <v>22807</v>
@@ -3980,11 +4076,14 @@
       <c r="AB33" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC33" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
-        <f>(COUNTIF(F34:AB34,"P")/(COUNTA(F34:AB34)))</f>
-        <v>0.95652173913043481</v>
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B34" s="7">
         <v>22807</v>
@@ -4067,11 +4166,14 @@
       <c r="AB34" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC34" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
-        <f>(COUNTIF(F35:AB35,"P")/(COUNTA(F35:AB35)))</f>
-        <v>0.95652173913043481</v>
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B35" s="7">
         <v>22807</v>
@@ -4154,11 +4256,14 @@
       <c r="AB35" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC35" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
-        <f>(COUNTIF(F36:AB36,"P")/(COUNTA(F36:AB36)))</f>
-        <v>0.95652173913043481</v>
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B36" s="7">
         <v>22807</v>
@@ -4241,11 +4346,14 @@
       <c r="AB36" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC36" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
-        <f>(COUNTIF(F37:AB37,"P")/(COUNTA(F37:AB37)))</f>
-        <v>0.95652173913043481</v>
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B37" s="7">
         <v>22807</v>
@@ -4328,11 +4436,14 @@
       <c r="AB37" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC37" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
-        <f>(COUNTIF(F38:AB38,"P")/(COUNTA(F38:AB38)))</f>
-        <v>0.95652173913043481</v>
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B38" s="7">
         <v>22807</v>
@@ -4415,11 +4526,14 @@
       <c r="AB38" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC38" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
-        <f>(COUNTIF(F39:AB39,"P")/(COUNTA(F39:AB39)))</f>
-        <v>0.91304347826086951</v>
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
       </c>
       <c r="B39" s="7">
         <v>22807</v>
@@ -4502,11 +4616,14 @@
       <c r="AB39" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC39" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
-        <f>(COUNTIF(F40:AB40,"P")/(COUNTA(F40:AB40)))</f>
-        <v>0.91304347826086951</v>
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
       </c>
       <c r="B40" s="7">
         <v>22807</v>
@@ -4589,11 +4706,14 @@
       <c r="AB40" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC40" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
-        <f>(COUNTIF(F41:AB41,"P")/(COUNTA(F41:AB41)))</f>
-        <v>0.91304347826086951</v>
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
       </c>
       <c r="B41" s="7">
         <v>22807</v>
@@ -4676,11 +4796,14 @@
       <c r="AB41" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC41" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
-        <f>(COUNTIF(F42:AB42,"P")/(COUNTA(F42:AB42)))</f>
-        <v>0.91304347826086951</v>
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
       </c>
       <c r="B42" s="7">
         <v>22807</v>
@@ -4763,11 +4886,14 @@
       <c r="AB42" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC42" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
-        <f>(COUNTIF(F43:AB43,"P")/(COUNTA(F43:AB43)))</f>
-        <v>0.91304347826086951</v>
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
       </c>
       <c r="B43" s="7">
         <v>22807</v>
@@ -4850,11 +4976,14 @@
       <c r="AB43" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC43" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
-        <f>(COUNTIF(F44:AB44,"P")/(COUNTA(F44:AB44)))</f>
-        <v>0.91304347826086951</v>
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
       </c>
       <c r="B44" s="7">
         <v>22807</v>
@@ -4937,11 +5066,14 @@
       <c r="AB44" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC44" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
-        <f>(COUNTIF(F45:AB45,"P")/(COUNTA(F45:AB45)))</f>
-        <v>0.91304347826086951</v>
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
       </c>
       <c r="B45" s="7">
         <v>22807</v>
@@ -5024,11 +5156,14 @@
       <c r="AB45" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC45" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
-        <f>(COUNTIF(F46:AB46,"P")/(COUNTA(F46:AB46)))</f>
-        <v>0.91304347826086951</v>
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
       </c>
       <c r="B46" s="7">
         <v>22807</v>
@@ -5111,11 +5246,14 @@
       <c r="AB46" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC46" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
-        <f>(COUNTIF(F47:AB47,"P")/(COUNTA(F47:AB47)))</f>
-        <v>0.91304347826086951</v>
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
       </c>
       <c r="B47" s="7">
         <v>22807</v>
@@ -5198,11 +5336,14 @@
       <c r="AB47" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC47" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
-        <f>(COUNTIF(F48:AB48,"P")/(COUNTA(F48:AB48)))</f>
-        <v>0.86956521739130432</v>
+        <f t="shared" si="0"/>
+        <v>0.875</v>
       </c>
       <c r="B48" s="7">
         <v>22807</v>
@@ -5285,11 +5426,14 @@
       <c r="AB48" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC48" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
-        <f>(COUNTIF(F49:AB49,"P")/(COUNTA(F49:AB49)))</f>
-        <v>0.86956521739130432</v>
+        <f t="shared" si="0"/>
+        <v>0.875</v>
       </c>
       <c r="B49" s="7">
         <v>22807</v>
@@ -5372,11 +5516,14 @@
       <c r="AB49" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC49" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
-        <f>(COUNTIF(F50:AB50,"P")/(COUNTA(F50:AB50)))</f>
-        <v>0.86956521739130432</v>
+        <f t="shared" si="0"/>
+        <v>0.875</v>
       </c>
       <c r="B50" s="7">
         <v>22807</v>
@@ -5459,11 +5606,14 @@
       <c r="AB50" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC50" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
-        <f>(COUNTIF(F51:AB51,"P")/(COUNTA(F51:AB51)))</f>
-        <v>0.86956521739130432</v>
+        <f t="shared" si="0"/>
+        <v>0.875</v>
       </c>
       <c r="B51" s="7">
         <v>22807</v>
@@ -5546,11 +5696,14 @@
       <c r="AB51" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC51" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
-        <f>(COUNTIF(F52:AB52,"P")/(COUNTA(F52:AB52)))</f>
-        <v>0.86956521739130432</v>
+        <f t="shared" si="0"/>
+        <v>0.875</v>
       </c>
       <c r="B52" s="7">
         <v>22807</v>
@@ -5633,11 +5786,14 @@
       <c r="AB52" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC52" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
-        <f>(COUNTIF(F53:AB53,"P")/(COUNTA(F53:AB53)))</f>
-        <v>0.86956521739130432</v>
+        <f t="shared" si="0"/>
+        <v>0.875</v>
       </c>
       <c r="B53" s="7">
         <v>22807</v>
@@ -5720,11 +5876,14 @@
       <c r="AB53" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC53" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
-        <f>(COUNTIF(F54:AB54,"P")/(COUNTA(F54:AB54)))</f>
-        <v>0.86956521739130432</v>
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="B54" s="7">
         <v>22807</v>
@@ -5807,11 +5966,14 @@
       <c r="AB54" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC54" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
-        <f>(COUNTIF(F55:AB55,"P")/(COUNTA(F55:AB55)))</f>
-        <v>0.82608695652173914</v>
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="B55" s="7">
         <v>22807</v>
@@ -5894,11 +6056,14 @@
       <c r="AB55" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC55" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
-        <f>(COUNTIF(F56:AB56,"P")/(COUNTA(F56:AB56)))</f>
-        <v>0.78260869565217395</v>
+        <f t="shared" si="0"/>
+        <v>0.79166666666666663</v>
       </c>
       <c r="B56" s="7">
         <v>22807</v>
@@ -5981,11 +6146,14 @@
       <c r="AB56" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC56" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
-        <f>(COUNTIF(F57:AB57,"P")/(COUNTA(F57:AB57)))</f>
-        <v>0.78260869565217395</v>
+        <f t="shared" si="0"/>
+        <v>0.79166666666666663</v>
       </c>
       <c r="B57" s="7">
         <v>22807</v>
@@ -6068,11 +6236,14 @@
       <c r="AB57" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC57" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
-        <f>(COUNTIF(F58:AB58,"P")/(COUNTA(F58:AB58)))</f>
-        <v>0.78260869565217395</v>
+        <f t="shared" si="0"/>
+        <v>0.79166666666666663</v>
       </c>
       <c r="B58" s="7">
         <v>22807</v>
@@ -6155,11 +6326,14 @@
       <c r="AB58" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC58" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
-        <f>(COUNTIF(F59:AB59,"P")/(COUNTA(F59:AB59)))</f>
-        <v>0.78260869565217395</v>
+        <f t="shared" si="0"/>
+        <v>0.79166666666666663</v>
       </c>
       <c r="B59" s="7">
         <v>22807</v>
@@ -6242,11 +6416,14 @@
       <c r="AB59" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC59" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
-        <f>(COUNTIF(F60:AB60,"P")/(COUNTA(F60:AB60)))</f>
-        <v>0.78260869565217395</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="B60" s="7">
         <v>22807</v>
@@ -6329,11 +6506,14 @@
       <c r="AB60" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC60" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
-        <f>(COUNTIF(F61:AB61,"P")/(COUNTA(F61:AB61)))</f>
-        <v>0.78260869565217395</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="B61" s="7">
         <v>22807</v>
@@ -6416,11 +6596,14 @@
       <c r="AB61" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC61" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
-        <f>(COUNTIF(F62:AB62,"P")/(COUNTA(F62:AB62)))</f>
-        <v>0.73913043478260865</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="B62" s="7">
         <v>22807</v>
@@ -6503,11 +6686,14 @@
       <c r="AB62" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC62" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
-        <f>(COUNTIF(F63:AB63,"P")/(COUNTA(F63:AB63)))</f>
-        <v>0.73913043478260865</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="B63" s="7">
         <v>22807</v>
@@ -6590,11 +6776,14 @@
       <c r="AB63" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC63" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
-        <f>(COUNTIF(F64:AB64,"P")/(COUNTA(F64:AB64)))</f>
-        <v>0.73913043478260865</v>
+        <f t="shared" si="0"/>
+        <v>0.70833333333333337</v>
       </c>
       <c r="B64" s="7">
         <v>22807</v>
@@ -6677,11 +6866,14 @@
       <c r="AB64" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC64" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
-        <f>(COUNTIF(F65:AB65,"P")/(COUNTA(F65:AB65)))</f>
-        <v>0.73913043478260865</v>
+        <f t="shared" si="0"/>
+        <v>0.70833333333333337</v>
       </c>
       <c r="B65" s="7">
         <v>22807</v>
@@ -6764,11 +6956,14 @@
       <c r="AB65" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC65" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
-        <f>(COUNTIF(F66:AB66,"P")/(COUNTA(F66:AB66)))</f>
-        <v>0.73913043478260865</v>
+        <f t="shared" si="0"/>
+        <v>0.70833333333333337</v>
       </c>
       <c r="B66" s="7">
         <v>22807</v>
@@ -6851,11 +7046,14 @@
       <c r="AB66" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC66" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
-        <f>(COUNTIF(F67:AB67,"P")/(COUNTA(F67:AB67)))</f>
-        <v>0.69565217391304346</v>
+        <f t="shared" ref="A67:A76" si="1">(COUNTIF(F67:AC67,"P")/(COUNTA(F67:AC67)))</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B67" s="7">
         <v>22807</v>
@@ -6938,11 +7136,14 @@
       <c r="AB67" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC67" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
-        <f>(COUNTIF(F68:AB68,"P")/(COUNTA(F68:AB68)))</f>
-        <v>0.65217391304347827</v>
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B68" s="7">
         <v>22807</v>
@@ -7025,11 +7226,14 @@
       <c r="AB68" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC68" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
-        <f>(COUNTIF(F69:AB69,"P")/(COUNTA(F69:AB69)))</f>
-        <v>0.65217391304347827</v>
+        <f t="shared" si="1"/>
+        <v>0.625</v>
       </c>
       <c r="B69" s="7">
         <v>22807</v>
@@ -7112,11 +7316,14 @@
       <c r="AB69" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC69" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
-        <f>(COUNTIF(F70:AB70,"P")/(COUNTA(F70:AB70)))</f>
-        <v>0.65217391304347827</v>
+        <f t="shared" si="1"/>
+        <v>0.625</v>
       </c>
       <c r="B70" s="7">
         <v>22807</v>
@@ -7199,11 +7406,14 @@
       <c r="AB70" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC70" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
-        <f>(COUNTIF(F71:AB71,"P")/(COUNTA(F71:AB71)))</f>
-        <v>0.60869565217391308</v>
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="B71" s="7">
         <v>22807</v>
@@ -7286,11 +7496,14 @@
       <c r="AB71" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="72" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC71" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
-        <f>(COUNTIF(F72:AB72,"P")/(COUNTA(F72:AB72)))</f>
-        <v>0.60869565217391308</v>
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="B72" s="7">
         <v>22807</v>
@@ -7373,11 +7586,14 @@
       <c r="AB72" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="73" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC72" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
-        <f>(COUNTIF(F73:AB73,"P")/(COUNTA(F73:AB73)))</f>
-        <v>0.52173913043478259</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="B73" s="11">
         <v>22807</v>
@@ -7460,11 +7676,14 @@
       <c r="AB73" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="74" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC73" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
-        <f>(COUNTIF(F74:AB74,"P")/(COUNTA(F74:AB74)))</f>
-        <v>0.47826086956521741</v>
+        <f t="shared" si="1"/>
+        <v>0.45833333333333331</v>
       </c>
       <c r="B74" s="11">
         <v>22807</v>
@@ -7547,11 +7766,14 @@
       <c r="AB74" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="75" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC74" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
-        <f>(COUNTIF(F75:AB75,"P")/(COUNTA(F75:AB75)))</f>
-        <v>0.47826086956521741</v>
+        <f t="shared" si="1"/>
+        <v>0.45833333333333331</v>
       </c>
       <c r="B75" s="11">
         <v>22807</v>
@@ -7634,11 +7856,14 @@
       <c r="AB75" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="76" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC75" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
-        <f>(COUNTIF(F76:AB76,"P")/(COUNTA(F76:AB76)))</f>
-        <v>0.30434782608695654</v>
+        <f t="shared" si="1"/>
+        <v>0.29166666666666669</v>
       </c>
       <c r="B76" s="12">
         <v>22807</v>
@@ -7721,8 +7946,11 @@
       <c r="AB76" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="77" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC76" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -7751,7 +7979,7 @@
       <c r="Z77" s="13"/>
       <c r="AA77" s="13"/>
     </row>
-    <row r="78" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -7780,7 +8008,7 @@
       <c r="Z78" s="13"/>
       <c r="AA78" s="13"/>
     </row>
-    <row r="79" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -7809,7 +8037,7 @@
       <c r="Z79" s="13"/>
       <c r="AA79" s="13"/>
     </row>
-    <row r="80" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
